--- a/flask/static/scivocab/answers.xlsx
+++ b/flask/static/scivocab/answers.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Word</t>
   </si>
   <si>
-    <t>habitat</t>
+    <t>extinct</t>
+  </si>
+  <si>
+    <t>mammal</t>
   </si>
   <si>
     <t>Answer</t>
@@ -386,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,10 +414,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -425,9 +428,23 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
         <v>40</v>
       </c>
     </row>
